--- a/day4_cw/data.xlsx
+++ b/day4_cw/data.xlsx
@@ -418,10 +418,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Styles Trendy Men Socks</v>
+        <v>Fancy Latest Men Caps &amp; Hats</v>
       </c>
       <c r="B2" t="str">
-        <v>₹128</v>
+        <v>₹399</v>
       </c>
       <c r="C2" t="str">
         <v>N/A</v>
@@ -474,13 +474,13 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Fancy Latest Men Socks</v>
+        <v>Casual Latest Men Socks</v>
       </c>
       <c r="B6" t="str">
-        <v>₹136</v>
+        <v>₹211</v>
       </c>
       <c r="C6" t="str">
-        <v>4.0</v>
+        <v>N/A</v>
       </c>
       <c r="D6" t="str">
         <v>In Stock</v>
@@ -488,13 +488,13 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Styles Modern Men Socks</v>
+        <v>Fashionate Men Caps</v>
       </c>
       <c r="B7" t="str">
-        <v>₹131</v>
+        <v>₹299</v>
       </c>
       <c r="C7" t="str">
-        <v>4.1</v>
+        <v>N/A</v>
       </c>
       <c r="D7" t="str">
         <v>In Stock</v>
@@ -516,13 +516,13 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Casual Latest Men Socks</v>
+        <v>Fancy Latest Men Ties</v>
       </c>
       <c r="B9" t="str">
-        <v>₹211</v>
+        <v>₹129</v>
       </c>
       <c r="C9" t="str">
-        <v>N/A</v>
+        <v>4.0</v>
       </c>
       <c r="D9" t="str">
         <v>In Stock</v>
@@ -530,13 +530,13 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Styles Latest Men Socks</v>
+        <v>Gorgeous Men Helmet</v>
       </c>
       <c r="B10" t="str">
-        <v>₹192</v>
+        <v>₹634</v>
       </c>
       <c r="C10" t="str">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D10" t="str">
         <v>In Stock</v>
@@ -544,13 +544,13 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Fancy Unique Men Socks</v>
+        <v>Fancy Latest Men Ties</v>
       </c>
       <c r="B11" t="str">
-        <v>₹141</v>
+        <v>₹235</v>
       </c>
       <c r="C11" t="str">
-        <v>4.0</v>
+        <v>4.3</v>
       </c>
       <c r="D11" t="str">
         <v>In Stock</v>
@@ -600,10 +600,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Styles Trendy Men Socks</v>
+        <v>Fancy Latest Men Caps &amp; Hats</v>
       </c>
       <c r="B15" t="str">
-        <v>₹128</v>
+        <v>₹399</v>
       </c>
       <c r="C15" t="str">
         <v>N/A</v>
@@ -628,13 +628,13 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Fancy Latest Men Socks</v>
+        <v>Casual Latest Men Socks</v>
       </c>
       <c r="B17" t="str">
-        <v>₹136</v>
+        <v>₹211</v>
       </c>
       <c r="C17" t="str">
-        <v>4.0</v>
+        <v>N/A</v>
       </c>
       <c r="D17" t="str">
         <v>In Stock</v>
@@ -656,13 +656,13 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Styles Modern Men Socks</v>
+        <v>Fashionate Men Caps</v>
       </c>
       <c r="B19" t="str">
-        <v>₹131</v>
+        <v>₹299</v>
       </c>
       <c r="C19" t="str">
-        <v>4.1</v>
+        <v>N/A</v>
       </c>
       <c r="D19" t="str">
         <v>In Stock</v>
@@ -698,13 +698,13 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Casual Latest Men Socks</v>
+        <v>Fancy Latest Men Ties</v>
       </c>
       <c r="B22" t="str">
-        <v>₹211</v>
+        <v>₹129</v>
       </c>
       <c r="C22" t="str">
-        <v>N/A</v>
+        <v>4.0</v>
       </c>
       <c r="D22" t="str">
         <v>In Stock</v>
@@ -726,13 +726,13 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Styles Latest Men Socks</v>
+        <v>Gorgeous Men Helmet</v>
       </c>
       <c r="B24" t="str">
-        <v>₹192</v>
+        <v>₹634</v>
       </c>
       <c r="C24" t="str">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D24" t="str">
         <v>In Stock</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Styles Trendy Men Socks</v>
+        <v>Fancy Latest Men Caps &amp; Hats</v>
       </c>
       <c r="B28" t="str">
-        <v>₹128</v>
+        <v>₹399</v>
       </c>
       <c r="C28" t="str">
         <v>N/A</v>
@@ -810,13 +810,13 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Fancy Latest Men Caps &amp; Hats</v>
+        <v>Styles Modern Men Ties</v>
       </c>
       <c r="B30" t="str">
-        <v>₹399</v>
+        <v>₹124</v>
       </c>
       <c r="C30" t="str">
-        <v>N/A</v>
+        <v>4.1</v>
       </c>
       <c r="D30" t="str">
         <v>In Stock</v>
@@ -838,13 +838,13 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Fancy Latest Men Socks</v>
+        <v>Casual Latest Men Socks</v>
       </c>
       <c r="B32" t="str">
-        <v>₹136</v>
+        <v>₹211</v>
       </c>
       <c r="C32" t="str">
-        <v>4.0</v>
+        <v>N/A</v>
       </c>
       <c r="D32" t="str">
         <v>In Stock</v>
@@ -866,13 +866,13 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Styles Modern Men Socks</v>
+        <v>Fashionate Men Caps</v>
       </c>
       <c r="B34" t="str">
-        <v>₹131</v>
+        <v>₹299</v>
       </c>
       <c r="C34" t="str">
-        <v>4.1</v>
+        <v>N/A</v>
       </c>
       <c r="D34" t="str">
         <v>In Stock</v>
